--- a/ADMON_DEL_PROYECTO/BITACORAS/2016/OCT/BITACORA_OCT.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2016/OCT/BITACORA_OCT.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\TRABAJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPERVISOR_PC\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2016\OCT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="8895" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="90">
   <si>
     <t>Periodo:</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Programación de aplicaciones</t>
-  </si>
-  <si>
-    <t>Healthy Plants</t>
   </si>
   <si>
     <t>Contreras Ortiz Jose Manuel</t>
@@ -396,11 +393,17 @@
   <si>
     <t>Saraí Morales Arguello</t>
   </si>
+  <si>
+    <t>Hospiplant</t>
+  </si>
+  <si>
+    <t>Valencia Caballero Ana Fabiola</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -504,7 +507,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +577,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -939,7 +948,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1053,6 +1062,9 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1210,9 +1222,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1472,23 +1483,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1524,23 +1518,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1719,8 +1696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L999"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1745,44 +1722,44 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="46" t="s">
+      <c r="B2" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="49"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="52"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="55"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12">
@@ -1798,13 +1775,13 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="58" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="58"/>
-      <c r="F6" s="58"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="58"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="G6" s="59"/>
+      <c r="H6" s="59"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1814,13 +1791,13 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="58"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1830,13 +1807,13 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="58" t="s">
         <v>47</v>
       </c>
-      <c r="E8" s="58"/>
-      <c r="F8" s="58"/>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="G8" s="59"/>
+      <c r="H8" s="59"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1846,13 +1823,13 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="58" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="58"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1862,13 +1839,13 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="60">
+      <c r="D10" s="61">
         <v>3</v>
       </c>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1878,13 +1855,13 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="57" t="s">
-        <v>49</v>
+      <c r="D11" s="58" t="s">
+        <v>88</v>
       </c>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1905,11 +1882,11 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
-      <c r="F13" s="56"/>
-      <c r="G13" s="56"/>
-      <c r="H13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1919,13 +1896,13 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="44" t="s">
-        <v>50</v>
+      <c r="D14" s="45" t="s">
+        <v>49</v>
       </c>
-      <c r="E14" s="45"/>
-      <c r="F14" s="45"/>
-      <c r="G14" s="45"/>
-      <c r="H14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1935,13 +1912,13 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="E15" s="45"/>
-      <c r="F15" s="45"/>
-      <c r="G15" s="45"/>
-      <c r="H15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1951,13 +1928,13 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="44" t="s">
-        <v>51</v>
+      <c r="D16" s="45" t="s">
+        <v>50</v>
       </c>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1967,13 +1944,13 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="44" t="s">
-        <v>52</v>
+      <c r="D17" s="45" t="s">
+        <v>51</v>
       </c>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1983,21 +1960,29 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="44" t="s">
-        <v>53</v>
+      <c r="D18" s="45" t="s">
+        <v>52</v>
       </c>
-      <c r="E18" s="45"/>
-      <c r="F18" s="45"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="D19" s="104" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="105"/>
+      <c r="F19" s="105"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="105"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9908,40 +9893,40 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="61" t="s">
-        <v>54</v>
+      <c r="B3" s="62" t="s">
+        <v>53</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="49"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="53"/>
-      <c r="D5" s="53"/>
-      <c r="E5" s="53"/>
-      <c r="F5" s="53"/>
-      <c r="G5" s="53"/>
-      <c r="H5" s="53"/>
-      <c r="I5" s="54"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="55"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
@@ -10007,13 +9992,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -10032,13 +10017,13 @@
         <v>16</v>
       </c>
       <c r="F10" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="G10" s="38" t="s">
-        <v>57</v>
-      </c>
       <c r="H10" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I10" s="13"/>
     </row>
@@ -10063,7 +10048,7 @@
         <v>41</v>
       </c>
       <c r="H11" s="39" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -10082,13 +10067,13 @@
         <v>16</v>
       </c>
       <c r="F12" s="34" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G12" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H12" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I12" s="13"/>
     </row>
@@ -10107,13 +10092,13 @@
         <v>16</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>41</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I13" s="13"/>
     </row>
@@ -10126,19 +10111,19 @@
         <v>42658</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E14" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F14" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G14" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="H14" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" s="13"/>
     </row>
@@ -10157,13 +10142,13 @@
         <v>16</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G15" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I15" s="13"/>
     </row>
@@ -10176,19 +10161,19 @@
         <v>42672</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G16" s="21" t="s">
         <v>41</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="I16" s="13"/>
     </row>
@@ -10207,7 +10192,7 @@
     </row>
     <row r="18" spans="1:9" ht="43.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="103">
+      <c r="B18" s="44">
         <v>10</v>
       </c>
       <c r="C18" s="11"/>
@@ -20175,13 +20160,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Daniel\Downloads\TRABAJOS\[Bitacora-3Parcial -.xlsx]Hoja3'!#REF!</xm:f>
+            <xm:f>[1]Hoja3!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D9:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Daniel\Downloads\TRABAJOS\[Bitacora-3Parcial -.xlsx]Hoja3'!#REF!</xm:f>
+            <xm:f>[1]Hoja3!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E10</xm:sqref>
         </x14:dataValidation>
@@ -20195,8 +20180,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -20234,72 +20219,72 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="34.5" customHeight="1">
-      <c r="B2" s="84" t="s">
-        <v>75</v>
+      <c r="B2" s="85" t="s">
+        <v>74</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="47"/>
-      <c r="K2" s="47"/>
-      <c r="L2" s="47"/>
-      <c r="M2" s="47"/>
-      <c r="N2" s="47"/>
-      <c r="O2" s="47"/>
-      <c r="P2" s="47"/>
-      <c r="Q2" s="47"/>
-      <c r="R2" s="47"/>
-      <c r="S2" s="47"/>
-      <c r="T2" s="47"/>
-      <c r="U2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="48"/>
+      <c r="N2" s="48"/>
+      <c r="O2" s="48"/>
+      <c r="P2" s="48"/>
+      <c r="Q2" s="48"/>
+      <c r="R2" s="48"/>
+      <c r="S2" s="48"/>
+      <c r="T2" s="48"/>
+      <c r="U2" s="49"/>
     </row>
     <row r="3" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B3" s="49"/>
-      <c r="C3" s="50"/>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="50"/>
-      <c r="H3" s="50"/>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="51"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="51"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="51"/>
+      <c r="P3" s="51"/>
+      <c r="Q3" s="51"/>
+      <c r="R3" s="51"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="51"/>
+      <c r="U3" s="52"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B4" s="52"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="53"/>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-      <c r="J4" s="53"/>
-      <c r="K4" s="53"/>
-      <c r="L4" s="53"/>
-      <c r="M4" s="53"/>
-      <c r="N4" s="53"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="53"/>
-      <c r="Q4" s="53"/>
-      <c r="R4" s="53"/>
-      <c r="S4" s="53"/>
-      <c r="T4" s="53"/>
-      <c r="U4" s="54"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="54"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="54"/>
+      <c r="P4" s="54"/>
+      <c r="Q4" s="54"/>
+      <c r="R4" s="54"/>
+      <c r="S4" s="54"/>
+      <c r="T4" s="54"/>
+      <c r="U4" s="55"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="1"/>
@@ -20324,12 +20309,12 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="93" t="s">
+      <c r="B6" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="50"/>
+      <c r="C6" s="51"/>
       <c r="E6" s="40" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
@@ -20343,35 +20328,35 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="85">
+      <c r="P6" s="86">
         <v>42673</v>
       </c>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="58"/>
-      <c r="T6" s="58"/>
-      <c r="U6" s="58"/>
+      <c r="Q6" s="59"/>
+      <c r="R6" s="59"/>
+      <c r="S6" s="59"/>
+      <c r="T6" s="59"/>
+      <c r="U6" s="59"/>
     </row>
     <row r="7" spans="2:21" ht="47.25" customHeight="1">
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="95" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="95"/>
-      <c r="D7" s="88" t="s">
-        <v>58</v>
+      <c r="C7" s="96"/>
+      <c r="D7" s="89" t="s">
+        <v>57</v>
       </c>
-      <c r="E7" s="89"/>
-      <c r="F7" s="89"/>
-      <c r="G7" s="89"/>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
-      <c r="L7" s="89"/>
-      <c r="M7" s="89"/>
-      <c r="N7" s="89"/>
-      <c r="O7" s="89"/>
-      <c r="P7" s="89"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="90"/>
+      <c r="G7" s="90"/>
+      <c r="H7" s="90"/>
+      <c r="I7" s="90"/>
+      <c r="J7" s="90"/>
+      <c r="K7" s="90"/>
+      <c r="L7" s="90"/>
+      <c r="M7" s="90"/>
+      <c r="N7" s="90"/>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -20401,43 +20386,43 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B9" s="86" t="s">
+      <c r="B9" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="87" t="s">
+      <c r="C9" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="63"/>
-      <c r="E9" s="96" t="s">
+      <c r="D9" s="64"/>
+      <c r="E9" s="97" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F9" s="98" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="91" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="91"/>
-      <c r="I9" s="91"/>
-      <c r="J9" s="91"/>
-      <c r="K9" s="91"/>
-      <c r="L9" s="91"/>
-      <c r="M9" s="91"/>
-      <c r="N9" s="91"/>
-      <c r="O9" s="91"/>
-      <c r="P9" s="91"/>
-      <c r="Q9" s="91"/>
-      <c r="R9" s="91"/>
-      <c r="S9" s="91"/>
-      <c r="T9" s="91"/>
-      <c r="U9" s="92"/>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="R9" s="92"/>
+      <c r="S9" s="92"/>
+      <c r="T9" s="92"/>
+      <c r="U9" s="93"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="68"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="24">
         <v>1</v>
       </c>
@@ -20485,15 +20470,15 @@
       </c>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="67">
+      <c r="B11" s="68">
         <v>1</v>
       </c>
-      <c r="C11" s="73" t="s">
-        <v>59</v>
+      <c r="C11" s="74" t="s">
+        <v>58</v>
       </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="81" t="s">
-        <v>67</v>
+      <c r="D11" s="75"/>
+      <c r="E11" s="82" t="s">
+        <v>66</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>27</v>
@@ -20515,10 +20500,10 @@
       <c r="U11" s="28"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="68"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="82"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="76"/>
+      <c r="D12" s="77"/>
+      <c r="E12" s="83"/>
       <c r="F12" s="25" t="s">
         <v>28</v>
       </c>
@@ -20539,15 +20524,15 @@
       <c r="U12" s="28"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="67">
+      <c r="B13" s="68">
         <v>2</v>
       </c>
-      <c r="C13" s="73" t="s">
-        <v>60</v>
+      <c r="C13" s="74" t="s">
+        <v>59</v>
       </c>
-      <c r="D13" s="98"/>
-      <c r="E13" s="81" t="s">
-        <v>68</v>
+      <c r="D13" s="99"/>
+      <c r="E13" s="82" t="s">
+        <v>67</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>27</v>
@@ -20569,10 +20554,10 @@
       <c r="U13" s="28"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="68"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="82"/>
+      <c r="B14" s="69"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="83"/>
       <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
@@ -20593,15 +20578,15 @@
       <c r="U14" s="28"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="67">
+      <c r="B15" s="68">
         <v>3</v>
       </c>
-      <c r="C15" s="73" t="s">
-        <v>61</v>
+      <c r="C15" s="74" t="s">
+        <v>60</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="81" t="s">
-        <v>69</v>
+      <c r="D15" s="75"/>
+      <c r="E15" s="82" t="s">
+        <v>68</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>27</v>
@@ -20623,10 +20608,10 @@
       <c r="U15" s="28"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="68"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="82"/>
+      <c r="B16" s="69"/>
+      <c r="C16" s="76"/>
+      <c r="D16" s="77"/>
+      <c r="E16" s="83"/>
       <c r="F16" s="25" t="s">
         <v>28</v>
       </c>
@@ -20647,15 +20632,15 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="67">
+      <c r="B17" s="68">
         <v>4</v>
       </c>
-      <c r="C17" s="73" t="s">
-        <v>62</v>
+      <c r="C17" s="74" t="s">
+        <v>61</v>
       </c>
-      <c r="D17" s="74"/>
-      <c r="E17" s="81" t="s">
-        <v>70</v>
+      <c r="D17" s="75"/>
+      <c r="E17" s="82" t="s">
+        <v>69</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>27</v>
@@ -20677,10 +20662,10 @@
       <c r="U17" s="28"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="68"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="82"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="77"/>
+      <c r="E18" s="83"/>
       <c r="F18" s="25" t="s">
         <v>28</v>
       </c>
@@ -20701,15 +20686,15 @@
       <c r="U18" s="28"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="67">
+      <c r="B19" s="68">
         <v>5</v>
       </c>
-      <c r="C19" s="73" t="s">
-        <v>63</v>
+      <c r="C19" s="74" t="s">
+        <v>62</v>
       </c>
-      <c r="D19" s="74"/>
-      <c r="E19" s="81" t="s">
-        <v>71</v>
+      <c r="D19" s="75"/>
+      <c r="E19" s="82" t="s">
+        <v>70</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>27</v>
@@ -20731,10 +20716,10 @@
       <c r="U19" s="28"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="68"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="82"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="83"/>
       <c r="F20" s="25" t="s">
         <v>28</v>
       </c>
@@ -20755,15 +20740,15 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="67">
+      <c r="B21" s="68">
         <v>6</v>
       </c>
-      <c r="C21" s="73" t="s">
-        <v>64</v>
+      <c r="C21" s="74" t="s">
+        <v>63</v>
       </c>
-      <c r="D21" s="74"/>
-      <c r="E21" s="81" t="s">
-        <v>72</v>
+      <c r="D21" s="75"/>
+      <c r="E21" s="82" t="s">
+        <v>71</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>27</v>
@@ -20785,10 +20770,10 @@
       <c r="U21" s="28"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="68"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="82"/>
+      <c r="B22" s="69"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="83"/>
       <c r="F22" s="25" t="s">
         <v>28</v>
       </c>
@@ -20809,15 +20794,15 @@
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="67">
+      <c r="B23" s="68">
         <v>7</v>
       </c>
-      <c r="C23" s="101" t="s">
-        <v>65</v>
+      <c r="C23" s="102" t="s">
+        <v>64</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="81" t="s">
-        <v>73</v>
+      <c r="D23" s="103"/>
+      <c r="E23" s="82" t="s">
+        <v>72</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>27</v>
@@ -20839,10 +20824,10 @@
       <c r="U23" s="28"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="68"/>
-      <c r="C24" s="71"/>
-      <c r="D24" s="72"/>
-      <c r="E24" s="82"/>
+      <c r="B24" s="69"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="73"/>
+      <c r="E24" s="83"/>
       <c r="F24" s="25" t="s">
         <v>28</v>
       </c>
@@ -20863,15 +20848,15 @@
       <c r="U24" s="28"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="67">
+      <c r="B25" s="68">
         <v>8</v>
       </c>
-      <c r="C25" s="77" t="s">
-        <v>66</v>
+      <c r="C25" s="78" t="s">
+        <v>65</v>
       </c>
-      <c r="D25" s="70"/>
-      <c r="E25" s="81" t="s">
-        <v>74</v>
+      <c r="D25" s="71"/>
+      <c r="E25" s="82" t="s">
+        <v>73</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>27</v>
@@ -20893,10 +20878,10 @@
       <c r="U25" s="28"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="68"/>
-      <c r="C26" s="71"/>
-      <c r="D26" s="72"/>
-      <c r="E26" s="82"/>
+      <c r="B26" s="69"/>
+      <c r="C26" s="72"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="83"/>
       <c r="F26" s="25" t="s">
         <v>28</v>
       </c>
@@ -20917,12 +20902,12 @@
       <c r="U26" s="28"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="67">
+      <c r="B27" s="68">
         <v>9</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="79"/>
       <c r="F27" s="25" t="s">
         <v>27</v>
       </c>
@@ -20943,10 +20928,10 @@
       <c r="U27" s="28"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="68"/>
-      <c r="C28" s="71"/>
-      <c r="D28" s="72"/>
-      <c r="E28" s="79"/>
+      <c r="B28" s="69"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="73"/>
+      <c r="E28" s="80"/>
       <c r="F28" s="25" t="s">
         <v>28</v>
       </c>
@@ -20967,12 +20952,12 @@
       <c r="U28" s="28"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="67">
+      <c r="B29" s="68">
         <v>10</v>
       </c>
-      <c r="C29" s="69"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="78"/>
+      <c r="C29" s="70"/>
+      <c r="D29" s="71"/>
+      <c r="E29" s="79"/>
       <c r="F29" s="25" t="s">
         <v>27</v>
       </c>
@@ -20993,10 +20978,10 @@
       <c r="U29" s="28"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="68"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="72"/>
-      <c r="E30" s="79"/>
+      <c r="B30" s="69"/>
+      <c r="C30" s="72"/>
+      <c r="D30" s="73"/>
+      <c r="E30" s="80"/>
       <c r="F30" s="25" t="s">
         <v>28</v>
       </c>
@@ -21017,12 +21002,12 @@
       <c r="U30" s="28"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="67">
+      <c r="B31" s="68">
         <v>11</v>
       </c>
-      <c r="C31" s="69"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="80"/>
+      <c r="C31" s="70"/>
+      <c r="D31" s="71"/>
+      <c r="E31" s="81"/>
       <c r="F31" s="25" t="s">
         <v>27</v>
       </c>
@@ -21043,10 +21028,10 @@
       <c r="U31" s="28"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="68"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="79"/>
+      <c r="B32" s="69"/>
+      <c r="C32" s="72"/>
+      <c r="D32" s="73"/>
+      <c r="E32" s="80"/>
       <c r="F32" s="25" t="s">
         <v>28</v>
       </c>
@@ -21067,12 +21052,12 @@
       <c r="U32" s="28"/>
     </row>
     <row r="33" spans="2:21">
-      <c r="B33" s="67">
+      <c r="B33" s="68">
         <v>12</v>
       </c>
-      <c r="C33" s="69"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="80"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="71"/>
+      <c r="E33" s="81"/>
       <c r="F33" s="25" t="s">
         <v>27</v>
       </c>
@@ -21093,10 +21078,10 @@
       <c r="U33" s="28"/>
     </row>
     <row r="34" spans="2:21">
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
-      <c r="D34" s="72"/>
-      <c r="E34" s="83"/>
+      <c r="B34" s="69"/>
+      <c r="C34" s="72"/>
+      <c r="D34" s="73"/>
+      <c r="E34" s="84"/>
       <c r="F34" s="25" t="s">
         <v>28</v>
       </c>
@@ -21117,12 +21102,12 @@
       <c r="U34" s="28"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="B35" s="67">
+      <c r="B35" s="68">
         <v>13</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="70"/>
-      <c r="E35" s="80"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="71"/>
+      <c r="E35" s="81"/>
       <c r="F35" s="25" t="s">
         <v>27</v>
       </c>
@@ -21143,10 +21128,10 @@
       <c r="U35" s="28"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="68"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="79"/>
+      <c r="B36" s="69"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="80"/>
       <c r="F36" s="25" t="s">
         <v>28</v>
       </c>
@@ -21167,10 +21152,10 @@
       <c r="U36" s="28"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="B37" s="67">
+      <c r="B37" s="68">
         <v>14</v>
       </c>
-      <c r="E37" s="80"/>
+      <c r="E37" s="81"/>
       <c r="F37" s="25" t="s">
         <v>27</v>
       </c>
@@ -21191,8 +21176,8 @@
       <c r="U37" s="28"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="68"/>
-      <c r="E38" s="79"/>
+      <c r="B38" s="69"/>
+      <c r="E38" s="80"/>
       <c r="F38" s="25" t="s">
         <v>28</v>
       </c>
@@ -21213,12 +21198,12 @@
       <c r="U38" s="28"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="B39" s="67">
+      <c r="B39" s="68">
         <v>15</v>
       </c>
-      <c r="C39" s="66"/>
-      <c r="D39" s="63"/>
-      <c r="E39" s="80"/>
+      <c r="C39" s="67"/>
+      <c r="D39" s="64"/>
+      <c r="E39" s="81"/>
       <c r="F39" s="25" t="s">
         <v>27</v>
       </c>
@@ -21239,10 +21224,10 @@
       <c r="U39" s="28"/>
     </row>
     <row r="40" spans="2:21">
-      <c r="B40" s="68"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="79"/>
+      <c r="B40" s="69"/>
+      <c r="C40" s="65"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="80"/>
       <c r="F40" s="25" t="s">
         <v>28</v>
       </c>
@@ -21263,12 +21248,12 @@
       <c r="U40" s="28"/>
     </row>
     <row r="41" spans="2:21">
-      <c r="B41" s="67">
+      <c r="B41" s="68">
         <v>16</v>
       </c>
-      <c r="C41" s="62"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="80"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="64"/>
+      <c r="E41" s="81"/>
       <c r="F41" s="25" t="s">
         <v>27</v>
       </c>
@@ -21289,10 +21274,10 @@
       <c r="U41" s="28"/>
     </row>
     <row r="42" spans="2:21">
-      <c r="B42" s="68"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="79"/>
+      <c r="B42" s="69"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="66"/>
+      <c r="E42" s="80"/>
       <c r="F42" s="25" t="s">
         <v>28</v>
       </c>
@@ -21313,12 +21298,12 @@
       <c r="U42" s="28"/>
     </row>
     <row r="43" spans="2:21">
-      <c r="B43" s="67">
+      <c r="B43" s="68">
         <v>17</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="80"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="64"/>
+      <c r="E43" s="81"/>
       <c r="F43" s="25" t="s">
         <v>27</v>
       </c>
@@ -21339,10 +21324,10 @@
       <c r="U43" s="28"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="68"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="79"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="80"/>
       <c r="F44" s="25" t="s">
         <v>28</v>
       </c>
